--- a/zhujohnny/International_LPI_from_2007_to_2014.xlsx
+++ b/zhujohnny/International_LPI_from_2007_to_2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
@@ -1273,11 +1273,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1412,7 +1414,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
@@ -1430,6 +1432,7 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -1447,6 +1450,7 @@
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_COUNTRY" xfId="2"/>
     <cellStyle name="Normal_LPI_international" xfId="1"/>
@@ -1751,27 +1755,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -33239,7 +33247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
